--- a/articles/what-are-the-options-for-reforming-the-resourcing-of-adult-social-care-in-the-uk/raw/figs.xlsx
+++ b/articles/what-are-the-options-for-reforming-the-resourcing-of-adult-social-care-in-the-uk/raw/figs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\temp_NBER_LTC\statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\ecovisualisations\articles\what-are-the-options-for-reforming-the-resourcing-of-adult-social-care-in-the-uk\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F013BA2D-236A-48CB-A1CF-545CCEB56BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8317BF-89DB-477A-8ABF-040C548D01EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{18F40B21-7536-48BA-8893-F233A8074F3D}"/>
+    <workbookView xWindow="880" yWindow="-90" windowWidth="18410" windowHeight="10980" activeTab="1" xr2:uid="{18F40B21-7536-48BA-8893-F233A8074F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_A" hidden="1">'[1]Model inputs'!#REF!</definedName>
@@ -121,18 +120,18 @@
     <definedName name="__123Graph_XTOBREV" hidden="1">'[2]Forecast data'!#REF!</definedName>
     <definedName name="__123Graph_XTOTAL" hidden="1">'[2]Forecast data'!#REF!</definedName>
     <definedName name="_1_">#REF!</definedName>
-    <definedName name="_1__123Graph_ACHART_15" hidden="1">[8]USGC!$B$34:$B$53</definedName>
-    <definedName name="_10__123Graph_XCHART_15" hidden="1">[8]USGC!$A$34:$A$53</definedName>
-    <definedName name="_2__123Graph_BCHART_10" hidden="1">[8]USGC!$L$34:$L$53</definedName>
+    <definedName name="_1__123Graph_ACHART_15" hidden="1">[7]USGC!$B$34:$B$53</definedName>
+    <definedName name="_10__123Graph_XCHART_15" hidden="1">[7]USGC!$A$34:$A$53</definedName>
+    <definedName name="_2__123Graph_BCHART_10" hidden="1">[7]USGC!$L$34:$L$53</definedName>
     <definedName name="_2ecm">#REF!</definedName>
-    <definedName name="_3__123Graph_BCHART_13" hidden="1">[8]USGC!$R$34:$R$53</definedName>
+    <definedName name="_3__123Graph_BCHART_13" hidden="1">[7]USGC!$R$34:$R$53</definedName>
     <definedName name="_3ecw">#REF!</definedName>
-    <definedName name="_4__123Graph_BCHART_15" hidden="1">[8]USGC!$C$34:$C$53</definedName>
-    <definedName name="_5__123Graph_CCHART_10" hidden="1">[8]USGC!$F$34:$F$53</definedName>
-    <definedName name="_6__123Graph_CCHART_13" hidden="1">[8]USGC!$O$34:$O$53</definedName>
-    <definedName name="_7__123Graph_CCHART_15" hidden="1">[8]USGC!$D$34:$D$53</definedName>
-    <definedName name="_8__123Graph_XCHART_10" hidden="1">[8]USGC!$A$34:$A$53</definedName>
-    <definedName name="_9__123Graph_XCHART_13" hidden="1">[8]USGC!$A$34:$A$53</definedName>
+    <definedName name="_4__123Graph_BCHART_15" hidden="1">[7]USGC!$C$34:$C$53</definedName>
+    <definedName name="_5__123Graph_CCHART_10" hidden="1">[7]USGC!$F$34:$F$53</definedName>
+    <definedName name="_6__123Graph_CCHART_13" hidden="1">[7]USGC!$O$34:$O$53</definedName>
+    <definedName name="_7__123Graph_CCHART_15" hidden="1">[7]USGC!$D$34:$D$53</definedName>
+    <definedName name="_8__123Graph_XCHART_10" hidden="1">[7]USGC!$A$34:$A$53</definedName>
+    <definedName name="_9__123Graph_XCHART_13" hidden="1">[7]USGC!$A$34:$A$53</definedName>
     <definedName name="_Fill" hidden="1">'[2]Forecast data'!#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -140,37 +139,37 @@
     <definedName name="_Regression_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
-    <definedName name="AME">OFFSET([9]AME!$H$15,0,0,MAX([9]AME!$B$15:$B100),1)</definedName>
+    <definedName name="AME">OFFSET([8]AME!$H$15,0,0,MAX([8]AME!$B$15:$B100),1)</definedName>
     <definedName name="asdas" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="ASDASFD" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="ASDF" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="ASDFA" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="ASFD" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="ASFE" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
-    <definedName name="BLPH1" hidden="1">'[10]4.6 ten year bonds'!$A$4</definedName>
-    <definedName name="BLPH2" hidden="1">'[10]4.6 ten year bonds'!$D$4</definedName>
-    <definedName name="BLPH3" hidden="1">'[10]4.6 ten year bonds'!$G$4</definedName>
-    <definedName name="BLPH4" hidden="1">'[10]4.6 ten year bonds'!$J$4</definedName>
-    <definedName name="BLPH5" hidden="1">'[10]4.6 ten year bonds'!$M$4</definedName>
-    <definedName name="CDEL">OFFSET([9]CDEL!$G$15,0,0,MAX([9]CDEL!$B$15:$B100),1)</definedName>
-    <definedName name="CLASSIFICATION">[11]Menus!$C$2:$C$6</definedName>
-    <definedName name="datazone">'[12]Data (monthly)'!$A$3:$AN$2314</definedName>
+    <definedName name="BLPH1" hidden="1">'[9]4.6 ten year bonds'!$A$4</definedName>
+    <definedName name="BLPH2" hidden="1">'[9]4.6 ten year bonds'!$D$4</definedName>
+    <definedName name="BLPH3" hidden="1">'[9]4.6 ten year bonds'!$G$4</definedName>
+    <definedName name="BLPH4" hidden="1">'[9]4.6 ten year bonds'!$J$4</definedName>
+    <definedName name="BLPH5" hidden="1">'[9]4.6 ten year bonds'!$M$4</definedName>
+    <definedName name="CDEL">OFFSET([8]CDEL!$G$15,0,0,MAX([8]CDEL!$B$15:$B100),1)</definedName>
+    <definedName name="CLASSIFICATION">[10]Menus!$C$2:$C$6</definedName>
+    <definedName name="datazone">'[11]Data (monthly)'!$A$3:$AN$2314</definedName>
     <definedName name="dgsgf" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="Distribution" hidden="1">#REF!</definedName>
-    <definedName name="dwl_data">[13]Download!$B$2:$CE$81</definedName>
-    <definedName name="dwl_data_fy">[14]Download!$B$65:$CE$79</definedName>
-    <definedName name="dwl_dates">[13]Download!$A$2:$A$81</definedName>
-    <definedName name="dwl_dates_fy">[14]Download!$A$65:$A$79</definedName>
-    <definedName name="dwl_vars">[13]Download!$B$1:$CE$1</definedName>
+    <definedName name="dwl_data">[12]Download!$B$2:$CE$81</definedName>
+    <definedName name="dwl_data_fy">[13]Download!$B$65:$CE$79</definedName>
+    <definedName name="dwl_dates">[12]Download!$A$2:$A$81</definedName>
+    <definedName name="dwl_dates_fy">[13]Download!$A$65:$A$79</definedName>
+    <definedName name="dwl_vars">[12]Download!$B$1:$CE$1</definedName>
     <definedName name="EFO" hidden="1">'[2]Forecast data'!#REF!</definedName>
-    <definedName name="Ev">[15]Determinants!$CL$2:$CL$8</definedName>
+    <definedName name="Ev">[14]Determinants!$CL$2:$CL$8</definedName>
     <definedName name="ExtraProfiles" hidden="1">#REF!</definedName>
     <definedName name="FDDD" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="fg" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="fgfd" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="fyu" hidden="1">'[2]Forecast data'!#REF!</definedName>
-    <definedName name="General_CDEL">OFFSET([9]CDEL!$G$17,0,0,MAX([9]CDEL!$B$17:$B100)-1,1)</definedName>
-    <definedName name="General_RDEL">OFFSET([9]RDEL!$G$17,0,0,MAX([9]RDEL!$B$17:$B100)-1,1)</definedName>
+    <definedName name="General_CDEL">OFFSET([8]CDEL!$G$17,0,0,MAX([8]CDEL!$B$17:$B100)-1,1)</definedName>
+    <definedName name="General_RDEL">OFFSET([8]RDEL!$G$17,0,0,MAX([8]RDEL!$B$17:$B100)-1,1)</definedName>
     <definedName name="ghj" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="HTML_CodePage" hidden="1">1</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Claimants'!$B$2:$E$38"}</definedName>
@@ -191,18 +190,18 @@
     <definedName name="jhkgh2" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="NOCONFLICT" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="Option2" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
-    <definedName name="Pop" hidden="1">[16]Population!#REF!</definedName>
+    <definedName name="Pop" hidden="1">[15]Population!#REF!</definedName>
     <definedName name="Population" hidden="1">#REF!</definedName>
     <definedName name="Profiles" hidden="1">#REF!</definedName>
     <definedName name="Projections" hidden="1">#REF!</definedName>
-    <definedName name="RDEL">OFFSET([9]RDEL!$G$15,0,0,MAX([9]RDEL!$B$15:$B100),1)</definedName>
-    <definedName name="Receipts">OFFSET([9]Receipts!$D$15,0,0,MAX([9]Receipts!$B$15:$B100),1)</definedName>
-    <definedName name="Results" hidden="1">[17]UK99!$A$1:$A$1</definedName>
+    <definedName name="RDEL">OFFSET([8]RDEL!$G$15,0,0,MAX([8]RDEL!$B$15:$B100),1)</definedName>
+    <definedName name="Receipts">OFFSET([8]Receipts!$D$15,0,0,MAX([8]Receipts!$B$15:$B100),1)</definedName>
+    <definedName name="Results" hidden="1">[16]UK99!$A$1:$A$1</definedName>
     <definedName name="sdf" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="sdff" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="sfad" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
-    <definedName name="Sumif_count">'[9]HMT Scorecard (Inputs)'!$A$509</definedName>
-    <definedName name="Supplementary_tables">'[9]INPUT - HMT Final scorecard'!$C$5:$C$256</definedName>
+    <definedName name="Sumif_count">'[8]HMT Scorecard (Inputs)'!$A$509</definedName>
+    <definedName name="Supplementary_tables">'[8]INPUT - HMT Final scorecard'!$C$5:$C$256</definedName>
     <definedName name="T4.9i" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="T4.9j" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
     <definedName name="trggh" hidden="1">{#N/A,#N/A,FALSE,"TMCOMP96";#N/A,#N/A,FALSE,"MAT96";#N/A,#N/A,FALSE,"FANDA96";#N/A,#N/A,FALSE,"INTRAN96";#N/A,#N/A,FALSE,"NAA9697";#N/A,#N/A,FALSE,"ECWEBB";#N/A,#N/A,FALSE,"MFT96";#N/A,#N/A,FALSE,"CTrecon"}</definedName>
@@ -235,18 +234,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>2050 (projected)</t>
-  </si>
-  <si>
-    <t>% population aged 65+</t>
-  </si>
-  <si>
-    <t>% population aged 85+</t>
-  </si>
-  <si>
-    <t>65+ population (% of those 15-64)</t>
-  </si>
-  <si>
-    <t>85+ population (% of those 15-64)</t>
   </si>
   <si>
     <t>Table 4: Gross Current Expenditure in cash and real terms, 2005-06 to 2019-20</t>
@@ -733,6 +720,18 @@
   <si>
     <t>Caseload (right-hand axis)</t>
   </si>
+  <si>
+    <t>85+ population (% of total)</t>
+  </si>
+  <si>
+    <t>65+ population (% of total)</t>
+  </si>
+  <si>
+    <t>65+ population (% 15-64)</t>
+  </si>
+  <si>
+    <t>85+ population (% 15-64)</t>
+  </si>
 </sst>
 </file>
 
@@ -744,7 +743,7 @@
     <numFmt numFmtId="166" formatCode="[$-10409]0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,12 +760,6 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1001,9 +994,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1014,92 +1007,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2170,16 +2160,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>% population aged 65+</c:v>
+                  <c:v>65+ population (% of total)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>% population aged 85+</c:v>
+                  <c:v>85+ population (% of total)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65+ population (% of those 15-64)</c:v>
+                  <c:v>65+ population (% 15-64)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85+ population (% of those 15-64)</c:v>
+                  <c:v>85+ population (% 15-64)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2298,16 +2288,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>% population aged 65+</c:v>
+                  <c:v>65+ population (% of total)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>% population aged 85+</c:v>
+                  <c:v>85+ population (% of total)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65+ population (% of those 15-64)</c:v>
+                  <c:v>65+ population (% 15-64)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85+ population (% of those 15-64)</c:v>
+                  <c:v>85+ population (% 15-64)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3851,79 +3841,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Figure 1.1"/>
-      <sheetName val="Frameworks comparison 2.1 2.2"/>
-      <sheetName val="Figures 3.1 3.2"/>
-      <sheetName val="Table 3.1"/>
-      <sheetName val="3.1 Inflation expectations"/>
-      <sheetName val="3.2 Taylor rules"/>
-      <sheetName val="3.3 UK Taylor rule"/>
-      <sheetName val="Chart 3.4"/>
-      <sheetName val="3.5 10 years ahead"/>
-      <sheetName val="3.6 M3 growth"/>
-      <sheetName val="Box D Red triangle"/>
-      <sheetName val="Figure 4.1 UK fiscal fwork"/>
-      <sheetName val="Table 4.1"/>
-      <sheetName val="Box D table"/>
-      <sheetName val="4.1 UK"/>
-      <sheetName val="4.3.and 4.4"/>
-      <sheetName val="4.5 deficit and interest rate"/>
-      <sheetName val="4.6 ten year bonds"/>
-      <sheetName val="5.1 share of gdp"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Figure 6.1"/>
-      <sheetName val="Table 6.1 Bank Supervisors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1">
-        <row r="4">
-          <cell r="A4">
-            <v>35877</v>
-          </cell>
-          <cell r="D4">
-            <v>33091</v>
-          </cell>
-          <cell r="G4">
-            <v>33092</v>
-          </cell>
-          <cell r="J4">
-            <v>33973</v>
-          </cell>
-          <cell r="M4">
-            <v>34096</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Lead package"/>
       <sheetName val="Other"/>
       <sheetName val="Lead (both)"/>
@@ -3977,7 +3894,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7366,7 +7283,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -27717,7 +27634,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -30412,7 +30329,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -30521,7 +30438,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -30568,7 +30485,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -31216,239 +31133,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Contents"/>
-      <sheetName val="Executive summary"/>
-      <sheetName val="C1"/>
-      <sheetName val="C2"/>
-      <sheetName val="C3"/>
-      <sheetName val="T1"/>
-      <sheetName val="Chapter 2"/>
-      <sheetName val="C2.1"/>
-      <sheetName val="C2.2"/>
-      <sheetName val="C2.3"/>
-      <sheetName val="T2.1"/>
-      <sheetName val="T2.2"/>
-      <sheetName val="T2.3"/>
-      <sheetName val="T2.4"/>
-      <sheetName val="C2.4"/>
-      <sheetName val="T2.5"/>
-      <sheetName val="T2.6"/>
-      <sheetName val="T2.7"/>
-      <sheetName val="T2.8"/>
-      <sheetName val="T2.9"/>
-      <sheetName val="T2.10"/>
-      <sheetName val="T2.11"/>
-      <sheetName val="T2.12"/>
-      <sheetName val="C2.5"/>
-      <sheetName val="T2.13"/>
-      <sheetName val="Chapter 3"/>
-      <sheetName val="C3.1"/>
-      <sheetName val="C3.2"/>
-      <sheetName val="T3.1"/>
-      <sheetName val="T3.2"/>
-      <sheetName val="C3.3"/>
-      <sheetName val="T3.3"/>
-      <sheetName val="C3.A"/>
-      <sheetName val="C3.B"/>
-      <sheetName val="C3.4"/>
-      <sheetName val="C3.5"/>
-      <sheetName val="T3.4"/>
-      <sheetName val="T3.5"/>
-      <sheetName val="T3.6"/>
-      <sheetName val="T3.7"/>
-      <sheetName val="C3.6"/>
-      <sheetName val="C3.7"/>
-      <sheetName val="C3.8"/>
-      <sheetName val="T3.8"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="T3.9"/>
-      <sheetName val="C3.9"/>
-      <sheetName val="C3.10"/>
-      <sheetName val="T3.15"/>
-      <sheetName val="T3.10"/>
-      <sheetName val="T3.11"/>
-      <sheetName val="C3.11"/>
-      <sheetName val="C3.12"/>
-      <sheetName val="C3.13"/>
-      <sheetName val="C3.14"/>
-      <sheetName val="C3.C"/>
-      <sheetName val="T3.A"/>
-      <sheetName val="T3.12"/>
-      <sheetName val="T3.13"/>
-      <sheetName val="C3.15"/>
-      <sheetName val="C3.16"/>
-      <sheetName val="C3.17"/>
-      <sheetName val="T3.14"/>
-      <sheetName val="C3.18"/>
-      <sheetName val="C3.19"/>
-      <sheetName val="C3.20"/>
-      <sheetName val="C3.21"/>
-      <sheetName val="T3.16"/>
-      <sheetName val="C3.22"/>
-      <sheetName val="C3.23"/>
-      <sheetName val="T3.17"/>
-      <sheetName val="C3.24"/>
-      <sheetName val="C3.25"/>
-      <sheetName val="C3.26"/>
-      <sheetName val="C3.27"/>
-      <sheetName val="Chapter 4"/>
-      <sheetName val="T4.1"/>
-      <sheetName val="C4.1"/>
-      <sheetName val="C4.2"/>
-      <sheetName val="Annex A"/>
-      <sheetName val="CA.1"/>
-      <sheetName val="CA.2"/>
-      <sheetName val="CA.3"/>
-      <sheetName val="CA.A"/>
-      <sheetName val="CA.4"/>
-      <sheetName val="CA.5"/>
-      <sheetName val="CA.6"/>
-      <sheetName val="CA.7"/>
-      <sheetName val="CA.8"/>
-      <sheetName val="CA.9"/>
-      <sheetName val="CA.10"/>
-      <sheetName val="CA.11"/>
-      <sheetName val="CA.B"/>
-      <sheetName val="CA.C"/>
-      <sheetName val="CA.12"/>
-      <sheetName val="CA.13"/>
-      <sheetName val="CA.14"/>
-      <sheetName val="TA.1"/>
-      <sheetName val="CA.15"/>
-      <sheetName val="CA.16"/>
-      <sheetName val="Annex B"/>
-      <sheetName val="CB.1"/>
-      <sheetName val="FB.1"/>
-      <sheetName val="TB.1"/>
-      <sheetName val="CB.2"/>
-      <sheetName val="CB.3"/>
-      <sheetName val="CB.4"/>
-      <sheetName val="CB.5"/>
-      <sheetName val="CB.6"/>
-      <sheetName val="CB.7"/>
-      <sheetName val="CB.8"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="XXXXX"/>
       <sheetName val="Differences"/>
       <sheetName val="margus"/>
@@ -31925,7 +31609,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -33184,6 +32868,79 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Figure 1.1"/>
+      <sheetName val="Frameworks comparison 2.1 2.2"/>
+      <sheetName val="Figures 3.1 3.2"/>
+      <sheetName val="Table 3.1"/>
+      <sheetName val="3.1 Inflation expectations"/>
+      <sheetName val="3.2 Taylor rules"/>
+      <sheetName val="3.3 UK Taylor rule"/>
+      <sheetName val="Chart 3.4"/>
+      <sheetName val="3.5 10 years ahead"/>
+      <sheetName val="3.6 M3 growth"/>
+      <sheetName val="Box D Red triangle"/>
+      <sheetName val="Figure 4.1 UK fiscal fwork"/>
+      <sheetName val="Table 4.1"/>
+      <sheetName val="Box D table"/>
+      <sheetName val="4.1 UK"/>
+      <sheetName val="4.3.and 4.4"/>
+      <sheetName val="4.5 deficit and interest rate"/>
+      <sheetName val="4.6 ten year bonds"/>
+      <sheetName val="5.1 share of gdp"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Figure 6.1"/>
+      <sheetName val="Table 6.1 Bank Supervisors"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1">
+        <row r="4">
+          <cell r="A4">
+            <v>35877</v>
+          </cell>
+          <cell r="D4">
+            <v>33091</v>
+          </cell>
+          <cell r="G4">
+            <v>33092</v>
+          </cell>
+          <cell r="J4">
+            <v>33973</v>
+          </cell>
+          <cell r="M4">
+            <v>34096</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -33492,721 +33249,721 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="5" spans="1:9" ht="39" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>2006</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>14356579</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>19002633</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f>C6/1000000</f>
         <v>14.356579</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>D6/1000000</f>
         <v>19.002632999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>8054480</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>496390</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f>D6*1000/(G6+H6)</f>
         <v>2222.3040462549425</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10">
         <v>2007</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>14898163</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>19175097</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:F20" si="0">C7/1000000</f>
         <v>14.898163</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>19.175097000000001</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>8125168</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>496390</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <f t="shared" ref="I7:I20" si="1">D7*1000/(G7+H7)</f>
         <v>2224.0872241420866</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
         <v>2008</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>15274794</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>19120889</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>15.274794</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>19.120888999999998</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>8249981</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>496390</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="1"/>
         <v>2186.151147716007</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10">
         <v>2009</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>16075810</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>19592717</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>16.075810000000001</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>19.592717</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>8400287</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>496390</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <f t="shared" si="1"/>
         <v>2202.2511326419967</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10">
         <v>2010</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>16806658</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>20161217</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>16.806657999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>20.161217000000001</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>8563615</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>496390</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>2225.298661534955</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10">
         <v>2011</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>17039750</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>20073226</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>17.039750000000002</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>20.073225999999998</v>
       </c>
       <c r="G11">
         <v>8729667</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>496390</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f t="shared" si="1"/>
         <v>2175.7101652417714</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10">
         <v>2012</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>17228995</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>19993038</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>17.228995000000001</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>19.993037999999999</v>
       </c>
       <c r="G12">
         <v>9056508</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>496390</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>2092.8767375093926</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10">
         <v>2013</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>17159339</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>19513235</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>17.159338999999999</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>19.513235000000002</v>
       </c>
       <c r="G13">
         <v>9305179</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>496390</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="1"/>
         <v>1990.8276929948665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
         <v>2014</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>17249383</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>19268107</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>17.249383000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>19.268107000000001</v>
       </c>
       <c r="G14">
         <v>9537708</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>496390</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <f t="shared" si="1"/>
         <v>1920.2629872660202</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10">
         <v>2015</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>17043296</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>18778961</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>17.043296000000002</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>18.778960999999999</v>
       </c>
       <c r="G15">
         <v>9711572</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>496390</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <f t="shared" si="1"/>
         <v>1839.6386075888606</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="10">
         <v>2016</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>16970231</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>18547116</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>16.970230999999998</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>18.547115999999999</v>
       </c>
       <c r="G16">
         <v>9882841</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>496390</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
         <v>1786.9451021949508</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10">
         <v>2017</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>17526378</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>18692331</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
         <v>17.526378000000001</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>18.692330999999999</v>
       </c>
       <c r="G17">
         <v>10030511</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>496390</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <f t="shared" si="1"/>
         <v>1775.6727264747717</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10">
         <v>2018</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>17928188</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>18790021</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>17.928187999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>18.790020999999999</v>
       </c>
       <c r="G18">
         <v>10179253</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>496390</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f t="shared" si="1"/>
         <v>1760.0833036473775</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="11">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="10">
         <v>2019</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>18735312</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>19193042</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>18.735312</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>19.193041999999998</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>10353716</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>496390</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <f t="shared" si="1"/>
         <v>1768.926681453619</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="11">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10">
         <v>2020</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>19653137</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>19653137</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>19.653137000000001</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>19.653137000000001</v>
       </c>
       <c r="G20">
         <v>10505000</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>496390</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="1"/>
         <v>1786.4230792654382</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:9" ht="91" x14ac:dyDescent="0.75">
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="91" x14ac:dyDescent="0.75">
+      <c r="A23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="130" x14ac:dyDescent="0.75">
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A26" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15">
-        <v>0.37</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
-    <row r="24" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="D24" s="15">
-        <v>-0.03</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A31" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -34230,18 +33987,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C86A16-59A0-4533-8294-5814B96D7E43}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.40625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="64" thickTop="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>2020</v>
@@ -34250,47 +34007,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3">
         <v>18.5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>24.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:3" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3">
         <v>2.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3">
         <v>29.2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>41.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>8.6</v>
       </c>
     </row>
@@ -34305,509 +34062,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5FFB85-A7C5-491D-A620-3BEBAB138E4F}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="24"/>
-    <col min="4" max="55" width="8.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="7.40625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="17"/>
+    <col min="4" max="55" width="8.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
+    <row r="1" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="16"/>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.85">
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:55" ht="14.25" thickBot="1" x14ac:dyDescent="0.85"/>
+    <row r="25" spans="2:55" ht="14.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="L25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF25" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK25" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO25" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU25" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY25" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC25" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="24" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="T25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="V25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y25" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z25" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB25" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC25" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD25" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG25" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI25" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK25" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL25" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM25" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN25" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO25" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP25" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ25" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR25" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS25" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT25" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW25" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX25" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY25" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ25" s="27" t="s">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.7">
+      <c r="B26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="BA25" s="27" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="24">
+        <v>1.0880755767860704</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1.1649258241672142</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.193050117263984</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1.1820437346342789</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1.20813683418206</v>
+      </c>
+      <c r="I26" s="24">
+        <v>1.2347233898983123</v>
+      </c>
+      <c r="J26" s="24">
+        <v>1.2593550301905936</v>
+      </c>
+      <c r="K26" s="24">
+        <v>1.2807793293704854</v>
+      </c>
+      <c r="L26" s="24">
+        <v>1.2996600553368185</v>
+      </c>
+      <c r="M26" s="24">
+        <v>1.315732784671207</v>
+      </c>
+      <c r="N26" s="24">
+        <v>1.3394100244594416</v>
+      </c>
+      <c r="O26" s="24">
+        <v>1.3603424216967599</v>
+      </c>
+      <c r="P26" s="24">
+        <v>1.3786522240331811</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>1.3951091562871958</v>
+      </c>
+      <c r="R26" s="24">
+        <v>1.4090830875655527</v>
+      </c>
+      <c r="S26" s="24">
+        <v>1.4400643212630089</v>
+      </c>
+      <c r="T26" s="24">
+        <v>1.4692552207545753</v>
+      </c>
+      <c r="U26" s="24">
+        <v>1.4968374001972962</v>
+      </c>
+      <c r="V26" s="24">
+        <v>1.5224921397504072</v>
+      </c>
+      <c r="W26" s="24">
+        <v>1.5459728880082966</v>
+      </c>
+      <c r="X26" s="24">
+        <v>1.5679738471307021</v>
+      </c>
+      <c r="Y26" s="24">
+        <v>1.5880616904605929</v>
+      </c>
+      <c r="Z26" s="24">
+        <v>1.6064438043153875</v>
+      </c>
+      <c r="AA26" s="24">
+        <v>1.6234508074733038</v>
+      </c>
+      <c r="AB26" s="24">
+        <v>1.6392607617492287</v>
+      </c>
+      <c r="AC26" s="24">
+        <v>1.6613399590593507</v>
+      </c>
+      <c r="AD26" s="24">
+        <v>1.6816502842262595</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>1.7004968607725099</v>
+      </c>
+      <c r="AF26" s="24">
+        <v>1.7181140523248846</v>
+      </c>
+      <c r="AG26" s="24">
+        <v>1.7343994826550739</v>
+      </c>
+      <c r="AH26" s="24">
+        <v>1.756294994724436</v>
+      </c>
+      <c r="AI26" s="24">
+        <v>1.7768924812532063</v>
+      </c>
+      <c r="AJ26" s="24">
+        <v>1.7961288476532027</v>
+      </c>
+      <c r="AK26" s="24">
+        <v>1.8138409992853679</v>
+      </c>
+      <c r="AL26" s="24">
+        <v>1.8297935975863875</v>
+      </c>
+      <c r="AM26" s="24">
+        <v>1.8444238689663612</v>
+      </c>
+      <c r="AN26" s="24">
+        <v>1.8575323919404441</v>
+      </c>
+      <c r="AO26" s="24">
+        <v>1.8692927230491445</v>
+      </c>
+      <c r="AP26" s="24">
+        <v>1.8800756795457751</v>
+      </c>
+      <c r="AQ26" s="24">
+        <v>1.8901543412907504</v>
+      </c>
+      <c r="AR26" s="24">
+        <v>1.8984590188674733</v>
+      </c>
+      <c r="AS26" s="24">
+        <v>1.9055918679953332</v>
+      </c>
+      <c r="AT26" s="24">
+        <v>1.9114881091818727</v>
+      </c>
+      <c r="AU26" s="24">
+        <v>1.9163298327304767</v>
+      </c>
+      <c r="AV26" s="24">
+        <v>1.9198885024495673</v>
+      </c>
+      <c r="AW26" s="24">
+        <v>1.9247684976938648</v>
+      </c>
+      <c r="AX26" s="24">
+        <v>1.928260556743743</v>
+      </c>
+      <c r="AY26" s="24">
+        <v>1.9303496007515386</v>
+      </c>
+      <c r="AZ26" s="24">
+        <v>1.9308662629434943</v>
+      </c>
+      <c r="BA26" s="24">
+        <v>1.9290342074463058</v>
+      </c>
+      <c r="BB26" s="24">
+        <v>1.931916379727491</v>
+      </c>
+      <c r="BC26" s="25">
+        <v>1.9336945059614132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:55" ht="14.25" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B27" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="BB25" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC25" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:55" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31">
-        <v>1.0880755767860704</v>
-      </c>
-      <c r="E26" s="31">
-        <v>1.1649258241672142</v>
-      </c>
-      <c r="F26" s="31">
-        <v>1.193050117263984</v>
-      </c>
-      <c r="G26" s="31">
-        <v>1.1820437346342789</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1.20813683418206</v>
-      </c>
-      <c r="I26" s="31">
-        <v>1.2347233898983123</v>
-      </c>
-      <c r="J26" s="31">
-        <v>1.2593550301905936</v>
-      </c>
-      <c r="K26" s="31">
-        <v>1.2807793293704854</v>
-      </c>
-      <c r="L26" s="31">
-        <v>1.2996600553368185</v>
-      </c>
-      <c r="M26" s="31">
-        <v>1.315732784671207</v>
-      </c>
-      <c r="N26" s="31">
-        <v>1.3394100244594416</v>
-      </c>
-      <c r="O26" s="31">
-        <v>1.3603424216967599</v>
-      </c>
-      <c r="P26" s="31">
-        <v>1.3786522240331811</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>1.3951091562871958</v>
-      </c>
-      <c r="R26" s="31">
-        <v>1.4090830875655527</v>
-      </c>
-      <c r="S26" s="31">
-        <v>1.4400643212630089</v>
-      </c>
-      <c r="T26" s="31">
-        <v>1.4692552207545753</v>
-      </c>
-      <c r="U26" s="31">
-        <v>1.4968374001972962</v>
-      </c>
-      <c r="V26" s="31">
-        <v>1.5224921397504072</v>
-      </c>
-      <c r="W26" s="31">
-        <v>1.5459728880082966</v>
-      </c>
-      <c r="X26" s="31">
-        <v>1.5679738471307021</v>
-      </c>
-      <c r="Y26" s="31">
-        <v>1.5880616904605929</v>
-      </c>
-      <c r="Z26" s="31">
-        <v>1.6064438043153875</v>
-      </c>
-      <c r="AA26" s="31">
-        <v>1.6234508074733038</v>
-      </c>
-      <c r="AB26" s="31">
-        <v>1.6392607617492287</v>
-      </c>
-      <c r="AC26" s="31">
-        <v>1.6613399590593507</v>
-      </c>
-      <c r="AD26" s="31">
-        <v>1.6816502842262595</v>
-      </c>
-      <c r="AE26" s="31">
-        <v>1.7004968607725099</v>
-      </c>
-      <c r="AF26" s="31">
-        <v>1.7181140523248846</v>
-      </c>
-      <c r="AG26" s="31">
-        <v>1.7343994826550739</v>
-      </c>
-      <c r="AH26" s="31">
-        <v>1.756294994724436</v>
-      </c>
-      <c r="AI26" s="31">
-        <v>1.7768924812532063</v>
-      </c>
-      <c r="AJ26" s="31">
-        <v>1.7961288476532027</v>
-      </c>
-      <c r="AK26" s="31">
-        <v>1.8138409992853679</v>
-      </c>
-      <c r="AL26" s="31">
-        <v>1.8297935975863875</v>
-      </c>
-      <c r="AM26" s="31">
-        <v>1.8444238689663612</v>
-      </c>
-      <c r="AN26" s="31">
-        <v>1.8575323919404441</v>
-      </c>
-      <c r="AO26" s="31">
-        <v>1.8692927230491445</v>
-      </c>
-      <c r="AP26" s="31">
-        <v>1.8800756795457751</v>
-      </c>
-      <c r="AQ26" s="31">
-        <v>1.8901543412907504</v>
-      </c>
-      <c r="AR26" s="31">
-        <v>1.8984590188674733</v>
-      </c>
-      <c r="AS26" s="31">
-        <v>1.9055918679953332</v>
-      </c>
-      <c r="AT26" s="31">
-        <v>1.9114881091818727</v>
-      </c>
-      <c r="AU26" s="31">
-        <v>1.9163298327304767</v>
-      </c>
-      <c r="AV26" s="31">
-        <v>1.9198885024495673</v>
-      </c>
-      <c r="AW26" s="31">
-        <v>1.9247684976938648</v>
-      </c>
-      <c r="AX26" s="31">
-        <v>1.928260556743743</v>
-      </c>
-      <c r="AY26" s="31">
-        <v>1.9303496007515386</v>
-      </c>
-      <c r="AZ26" s="31">
-        <v>1.9308662629434943</v>
-      </c>
-      <c r="BA26" s="31">
-        <v>1.9290342074463058</v>
-      </c>
-      <c r="BB26" s="31">
-        <v>1.931916379727491</v>
-      </c>
-      <c r="BC26" s="32">
-        <v>1.9336945059614132</v>
-      </c>
-    </row>
-    <row r="27" spans="2:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35">
+      <c r="C27" s="27"/>
+      <c r="D27" s="28">
         <v>1.550470556547592</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="28">
         <v>1.571808439229093</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="28">
         <v>1.5940299849755031</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="28">
         <v>1.6173808223292254</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="28">
         <v>1.6419752977555551</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="28">
         <v>1.6685651892363258</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="28">
         <v>1.7142024306330685</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="28">
         <v>1.7490909171684221</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="28">
         <v>1.7724155554460541</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="28">
         <v>1.7885181509276236</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="28">
         <v>1.8166831254359579</v>
       </c>
-      <c r="O27" s="35">
+      <c r="O27" s="28">
         <v>1.8457056971549177</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="28">
         <v>1.874991259670189</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="28">
         <v>1.9044491508991401</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="28">
         <v>1.9339947043020209</v>
       </c>
-      <c r="S27" s="35">
+      <c r="S27" s="28">
         <v>1.9711977986018148</v>
       </c>
-      <c r="T27" s="35">
+      <c r="T27" s="28">
         <v>2.010022855375027</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="28">
         <v>2.0500959608263449</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="28">
         <v>2.0912368766522116</v>
       </c>
-      <c r="W27" s="35">
+      <c r="W27" s="28">
         <v>2.1343790888473726</v>
       </c>
-      <c r="X27" s="35">
+      <c r="X27" s="28">
         <v>2.1585947757194552</v>
       </c>
-      <c r="Y27" s="35">
+      <c r="Y27" s="28">
         <v>2.1834928828784825</v>
       </c>
-      <c r="Z27" s="35">
+      <c r="Z27" s="28">
         <v>2.2090931572116737</v>
       </c>
-      <c r="AA27" s="35">
+      <c r="AA27" s="28">
         <v>2.2354177456874602</v>
       </c>
-      <c r="AB27" s="35">
+      <c r="AB27" s="28">
         <v>2.2624517842670402</v>
       </c>
-      <c r="AC27" s="35">
+      <c r="AC27" s="28">
         <v>2.2887464116017968</v>
       </c>
-      <c r="AD27" s="35">
+      <c r="AD27" s="28">
         <v>2.3157014207016524</v>
       </c>
-      <c r="AE27" s="35">
+      <c r="AE27" s="28">
         <v>2.3433335388589871</v>
       </c>
-      <c r="AF27" s="35">
+      <c r="AF27" s="28">
         <v>2.3716496278095422</v>
       </c>
-      <c r="AG27" s="35">
+      <c r="AG27" s="28">
         <v>2.4006681066359481</v>
       </c>
-      <c r="AH27" s="35">
+      <c r="AH27" s="28">
         <v>2.4275855223839562</v>
       </c>
-      <c r="AI27" s="35">
+      <c r="AI27" s="28">
         <v>2.4551527340422989</v>
       </c>
-      <c r="AJ27" s="35">
+      <c r="AJ27" s="28">
         <v>2.4833495176063027</v>
       </c>
-      <c r="AK27" s="35">
+      <c r="AK27" s="28">
         <v>2.5121571302588417</v>
       </c>
-      <c r="AL27" s="35">
+      <c r="AL27" s="28">
         <v>2.5415507009731599</v>
       </c>
-      <c r="AM27" s="35">
+      <c r="AM27" s="28">
         <v>2.5605836693598851</v>
       </c>
-      <c r="AN27" s="35">
+      <c r="AN27" s="28">
         <v>2.5799136896692385</v>
       </c>
-      <c r="AO27" s="35">
+      <c r="AO27" s="28">
         <v>2.5994859349595041</v>
       </c>
-      <c r="AP27" s="35">
+      <c r="AP27" s="28">
         <v>2.6192420261008111</v>
       </c>
-      <c r="AQ27" s="35">
+      <c r="AQ27" s="28">
         <v>2.6391264114661803</v>
       </c>
-      <c r="AR27" s="35">
+      <c r="AR27" s="28">
         <v>2.6482491504571941</v>
       </c>
-      <c r="AS27" s="35">
+      <c r="AS27" s="28">
         <v>2.657255919869097</v>
       </c>
-      <c r="AT27" s="35">
+      <c r="AT27" s="28">
         <v>2.6660815927194399</v>
       </c>
-      <c r="AU27" s="35">
+      <c r="AU27" s="28">
         <v>2.6747228967818919</v>
       </c>
-      <c r="AV27" s="35">
+      <c r="AV27" s="28">
         <v>2.6832321140205444</v>
       </c>
-      <c r="AW27" s="35">
+      <c r="AW27" s="28">
         <v>2.6890302821018319</v>
       </c>
-      <c r="AX27" s="35">
+      <c r="AX27" s="28">
         <v>2.6946988584398648</v>
       </c>
-      <c r="AY27" s="35">
+      <c r="AY27" s="28">
         <v>2.7002591270863814</v>
       </c>
-      <c r="AZ27" s="35">
+      <c r="AZ27" s="28">
         <v>2.7057347033591741</v>
       </c>
-      <c r="BA27" s="35">
+      <c r="BA27" s="28">
         <v>2.711153552040837</v>
       </c>
-      <c r="BB27" s="35">
+      <c r="BB27" s="28">
         <v>2.7226647943559592</v>
       </c>
-      <c r="BC27" s="36">
+      <c r="BC27" s="29">
         <v>2.7330356746901061</v>
       </c>
     </row>
